--- a/report/ml_perform_crossval_agg_2022-11-23.xlsx
+++ b/report/ml_perform_crossval_agg_2022-11-23.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCB690-26AA-49FA-9BE4-2626F8ECE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3216" yWindow="1776" windowWidth="13824" windowHeight="7176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAE" sheetId="3" r:id="rId1"/>
+    <sheet name="MSE" sheetId="4" r:id="rId2"/>
+    <sheet name="Pearson" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -80,13 +92,31 @@
   </si>
   <si>
     <t>zomato_poi_500</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of avg_mae</t>
+  </si>
+  <si>
+    <t>Average of avg_mse</t>
+  </si>
+  <si>
+    <t>Average of avg_pearson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +168,756 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Aulia Rahmadi" refreshedDate="44888.903138657406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{3942C393-162E-4EE3-ABD1-F1AC164E1F90}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O13" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="3">
+        <s v="rf"/>
+        <s v="svr"/>
+        <s v="xgb"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dataset" numFmtId="0">
+      <sharedItems count="4">
+        <s v="zomato_only"/>
+        <s v="zomato_poi_1000"/>
+        <s v="zomato_poi_250"/>
+        <s v="zomato_poi_500"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="feature_size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="60"/>
+    </cacheField>
+    <cacheField name="avg_mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1211167847583049" maxValue="0.17142352835495861"/>
+    </cacheField>
+    <cacheField name="std_mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3037907742133532E-3" maxValue="4.3802366816297327E-3"/>
+    </cacheField>
+    <cacheField name="med_mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12034990639635661" maxValue="0.17351636158238351"/>
+    </cacheField>
+    <cacheField name="var_mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.3074519313505596E-6" maxValue="1.9186473387094659E-5"/>
+    </cacheField>
+    <cacheField name="avg_mse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.344856141081798E-2" maxValue="4.930949676078715E-2"/>
+    </cacheField>
+    <cacheField name="std_mse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.88369583300076E-4" maxValue="3.12536991357779E-3"/>
+    </cacheField>
+    <cacheField name="med_mse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.320752147896368E-2" maxValue="5.0855107777309609E-2"/>
+    </cacheField>
+    <cacheField name="var_mse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.7687443319276588E-7" maxValue="9.7679370966972402E-6"/>
+    </cacheField>
+    <cacheField name="avg_pearson" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25389768009809732" maxValue="0.45669449278943469"/>
+    </cacheField>
+    <cacheField name="std_pearson" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8525348631017641E-2" maxValue="2.8356355123786359E-2"/>
+    </cacheField>
+    <cacheField name="med_pearson" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25734690845376912" maxValue="0.46325018519964373"/>
+    </cacheField>
+    <cacheField name="var_pearson" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4318854190074728E-4" maxValue="8.0408287590628469E-4"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="0.1234771472579641"/>
+    <n v="2.8855985630282582E-3"/>
+    <n v="0.123105271318147"/>
+    <n v="8.3266790669507482E-6"/>
+    <n v="2.4722730838900371E-2"/>
+    <n v="1.0127935170775211E-3"/>
+    <n v="2.4348760660431189E-2"/>
+    <n v="1.025750708234256E-6"/>
+    <n v="0.41957454206094269"/>
+    <n v="2.0484454471559568E-2"/>
+    <n v="0.41946289724744379"/>
+    <n v="4.1961287499739678E-4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="0.12301803860801611"/>
+    <n v="2.6283318944860588E-3"/>
+    <n v="0.1225094175601275"/>
+    <n v="6.9081285475726759E-6"/>
+    <n v="2.3758495418207522E-2"/>
+    <n v="1.082618427481236E-3"/>
+    <n v="2.3623696525459158E-2"/>
+    <n v="1.172062659521944E-6"/>
+    <n v="0.44049832485072488"/>
+    <n v="1.8525348631017641E-2"/>
+    <n v="0.44272262943544372"/>
+    <n v="3.4318854190074728E-4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="0.1230126537511575"/>
+    <n v="3.8881751235777169E-3"/>
+    <n v="0.1229741085749443"/>
+    <n v="1.51179057916086E-5"/>
+    <n v="2.3836638132317858E-2"/>
+    <n v="1.3300930667359389E-3"/>
+    <n v="2.3659608044236641E-2"/>
+    <n v="1.7691475661790161E-6"/>
+    <n v="0.43604668040921291"/>
+    <n v="2.8356355123786359E-2"/>
+    <n v="0.44402495345031068"/>
+    <n v="8.0408287590628469E-4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="0.1220722939178559"/>
+    <n v="2.603230681097077E-3"/>
+    <n v="0.121829166997362"/>
+    <n v="6.7768099790051508E-6"/>
+    <n v="2.344856141081798E-2"/>
+    <n v="1.1551602458674589E-3"/>
+    <n v="2.3375761385522539E-2"/>
+    <n v="1.3343951936325679E-6"/>
+    <n v="0.45669449278943469"/>
+    <n v="1.99001888648172E-2"/>
+    <n v="0.46325018519964373"/>
+    <n v="3.9601751685539429E-4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="0.12446787944573399"/>
+    <n v="3.9532295490726926E-3"/>
+    <n v="0.1244271141538576"/>
+    <n v="1.5628023867661489E-5"/>
+    <n v="2.4523122499820259E-2"/>
+    <n v="1.488400344900026E-3"/>
+    <n v="2.4399714339316991E-2"/>
+    <n v="2.2153355866985149E-6"/>
+    <n v="0.40852115584029253"/>
+    <n v="2.370652290553911E-2"/>
+    <n v="0.42044514450550552"/>
+    <n v="5.6199922827085034E-4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="0.17142352835495861"/>
+    <n v="4.3802366816297327E-3"/>
+    <n v="0.17351636158238351"/>
+    <n v="1.9186473387094659E-5"/>
+    <n v="4.930949676078715E-2"/>
+    <n v="3.12536991357779E-3"/>
+    <n v="5.0855107777309609E-2"/>
+    <n v="9.7679370966972402E-6"/>
+    <n v="0.25389768009809732"/>
+    <n v="2.043710804846011E-2"/>
+    <n v="0.25734690845376912"/>
+    <n v="4.1767538538443292E-4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="0.1241407382423098"/>
+    <n v="3.9407438012094851E-3"/>
+    <n v="0.1241375820650515"/>
+    <n v="1.552946170677098E-5"/>
+    <n v="2.432901460072041E-2"/>
+    <n v="1.5563808152638491E-3"/>
+    <n v="2.426974231478447E-2"/>
+    <n v="2.4223212421213648E-6"/>
+    <n v="0.41609608596091191"/>
+    <n v="2.6994731608328871E-2"/>
+    <n v="0.42327887612852222"/>
+    <n v="7.2871553460570964E-4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="0.12344721458960729"/>
+    <n v="4.0055099494260438E-3"/>
+    <n v="0.12326549378511049"/>
+    <n v="1.6044109954951029E-5"/>
+    <n v="2.4290403277415881E-2"/>
+    <n v="1.534128043522434E-3"/>
+    <n v="2.4081142554264121E-2"/>
+    <n v="2.3535488539219709E-6"/>
+    <n v="0.41749117870610608"/>
+    <n v="2.824285770783495E-2"/>
+    <n v="0.42738918529667252"/>
+    <n v="7.9765901150501183E-4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="0.1211167847583049"/>
+    <n v="3.1334485159412099E-3"/>
+    <n v="0.12034990639635661"/>
+    <n v="9.8184996020541713E-6"/>
+    <n v="2.3599088057677568E-2"/>
+    <n v="1.2901567766244581E-3"/>
+    <n v="2.3209967748931141E-2"/>
+    <n v="1.664504508270012E-6"/>
+    <n v="0.44912718728702211"/>
+    <n v="2.4816236154124038E-2"/>
+    <n v="0.4616392805913852"/>
+    <n v="6.1584557685725322E-4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="0.12244470471122421"/>
+    <n v="2.5427293158079029E-3"/>
+    <n v="0.12212801752587291"/>
+    <n v="6.4654723734689274E-6"/>
+    <n v="2.3720689046426598E-2"/>
+    <n v="1.3171394329256E-3"/>
+    <n v="2.320752147896368E-2"/>
+    <n v="1.734856285767572E-6"/>
+    <n v="0.44206085361068642"/>
+    <n v="2.4274061953497281E-2"/>
+    <n v="0.43977734759652098"/>
+    <n v="5.8923008372222397E-4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="0.12376736217778581"/>
+    <n v="2.534316300613724E-3"/>
+    <n v="0.12284592907895529"/>
+    <n v="6.422759111556433E-6"/>
+    <n v="2.4259657847301819E-2"/>
+    <n v="1.046324667692068E-3"/>
+    <n v="2.3880686184227212E-2"/>
+    <n v="1.094795310220916E-6"/>
+    <n v="0.42520492985186148"/>
+    <n v="2.2659439089740691E-2"/>
+    <n v="0.43642279133159712"/>
+    <n v="5.1345017986166824E-4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="0.12416986541799931"/>
+    <n v="2.3037907742133532E-3"/>
+    <n v="0.12311974282324591"/>
+    <n v="5.3074519313505596E-6"/>
+    <n v="2.4513781224351001E-2"/>
+    <n v="9.88369583300076E-4"/>
+    <n v="2.4147333430133731E-2"/>
+    <n v="9.7687443319276588E-7"/>
+    <n v="0.42407461107103711"/>
+    <n v="2.1605438403250909E-2"/>
+    <n v="0.41339595003402779"/>
+    <n v="4.6679496859666932E-4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -195,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +995,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +1047,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +1240,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F55B21A-F7A6-41CD-9CD2-305714BEF335}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1234771472579641</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.12446787944573399</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.1211167847583049</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.12302060382066766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.12301803860801611</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.17142352835495861</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.12244470471122421</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.13896209055806633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1230126537511575</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1241407382423098</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.12376736217778581</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.12364025139041772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.1220722939178559</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.12344721458960729</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.12416986541799931</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.12322979130848749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.12289503338374841</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.13586984015815243</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.12287467926632854</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.12721318426940981</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1F3551-53E8-4270-904A-4A6BABFF3919}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.4722730838900371E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.4523122499820259E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.3599088057677568E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.4281647132132728E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.3758495418207522E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.930949676078715E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.3720689046426598E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.2262893741807096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.3836638132317858E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.432901460072041E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.4259657847301819E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.4141770193446696E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.344856141081798E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.4290403277415881E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.4513781224351001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.4084248637528286E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.3941606450060934E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.0613009284685928E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.4023304043939243E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.6192639926228698E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD986D0-B3E7-49B9-B5F4-2C714C49CCCF}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.41957454206094269</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.40852115584029253</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.44912718728702211</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.42574096172941917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.44049832485072488</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.25389768009809732</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.44206085361068642</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.37881895285316958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.43604668040921291</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41609608596091191</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.42520492985186148</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.42578256540732878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.45669449278943469</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.41749117870610608</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.42407461107103711</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.43275342752219265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.43820351002757879</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.37400152515135199</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43511689545515181</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.41577397687802753</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -504,40 +1816,40 @@
         <v>0.1234771472579641</v>
       </c>
       <c r="E2">
-        <v>0.002885598563028258</v>
+        <v>2.8855985630282582E-3</v>
       </c>
       <c r="F2">
         <v>0.123105271318147</v>
       </c>
       <c r="G2">
-        <v>8.326679066950748E-06</v>
+        <v>8.3266790669507482E-6</v>
       </c>
       <c r="H2">
-        <v>0.02472273083890037</v>
+        <v>2.4722730838900371E-2</v>
       </c>
       <c r="I2">
-        <v>0.001012793517077521</v>
+        <v>1.0127935170775211E-3</v>
       </c>
       <c r="J2">
-        <v>0.02434876066043119</v>
+        <v>2.4348760660431189E-2</v>
       </c>
       <c r="K2">
-        <v>1.025750708234256E-06</v>
+        <v>1.025750708234256E-6</v>
       </c>
       <c r="L2">
-        <v>0.4195745420609427</v>
+        <v>0.41957454206094269</v>
       </c>
       <c r="M2">
-        <v>0.02048445447155957</v>
+        <v>2.0484454471559568E-2</v>
       </c>
       <c r="N2">
-        <v>0.4194628972474438</v>
+        <v>0.41946289724744379</v>
       </c>
       <c r="O2">
-        <v>0.0004196128749973968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>4.1961287499739678E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -548,43 +1860,43 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>0.1230180386080161</v>
+        <v>0.12301803860801611</v>
       </c>
       <c r="E3">
-        <v>0.002628331894486059</v>
+        <v>2.6283318944860588E-3</v>
       </c>
       <c r="F3">
         <v>0.1225094175601275</v>
       </c>
       <c r="G3">
-        <v>6.908128547572676E-06</v>
+        <v>6.9081285475726759E-6</v>
       </c>
       <c r="H3">
-        <v>0.02375849541820752</v>
+        <v>2.3758495418207522E-2</v>
       </c>
       <c r="I3">
-        <v>0.001082618427481236</v>
+        <v>1.082618427481236E-3</v>
       </c>
       <c r="J3">
-        <v>0.02362369652545916</v>
+        <v>2.3623696525459158E-2</v>
       </c>
       <c r="K3">
-        <v>1.172062659521944E-06</v>
+        <v>1.172062659521944E-6</v>
       </c>
       <c r="L3">
-        <v>0.4404983248507249</v>
+        <v>0.44049832485072488</v>
       </c>
       <c r="M3">
-        <v>0.01852534863101764</v>
+        <v>1.8525348631017641E-2</v>
       </c>
       <c r="N3">
-        <v>0.4427226294354437</v>
+        <v>0.44272262943544372</v>
       </c>
       <c r="O3">
-        <v>0.0003431885419007473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.4318854190074728E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -598,40 +1910,40 @@
         <v>0.1230126537511575</v>
       </c>
       <c r="E4">
-        <v>0.003888175123577717</v>
+        <v>3.8881751235777169E-3</v>
       </c>
       <c r="F4">
         <v>0.1229741085749443</v>
       </c>
       <c r="G4">
-        <v>1.51179057916086E-05</v>
+        <v>1.51179057916086E-5</v>
       </c>
       <c r="H4">
-        <v>0.02383663813231786</v>
+        <v>2.3836638132317858E-2</v>
       </c>
       <c r="I4">
-        <v>0.001330093066735939</v>
+        <v>1.3300930667359389E-3</v>
       </c>
       <c r="J4">
-        <v>0.02365960804423664</v>
+        <v>2.3659608044236641E-2</v>
       </c>
       <c r="K4">
-        <v>1.769147566179016E-06</v>
+        <v>1.7691475661790161E-6</v>
       </c>
       <c r="L4">
-        <v>0.4360466804092129</v>
+        <v>0.43604668040921291</v>
       </c>
       <c r="M4">
-        <v>0.02835635512378636</v>
+        <v>2.8356355123786359E-2</v>
       </c>
       <c r="N4">
-        <v>0.4440249534503107</v>
+        <v>0.44402495345031068</v>
       </c>
       <c r="O4">
-        <v>0.0008040828759062847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.0408287590628469E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -645,40 +1957,40 @@
         <v>0.1220722939178559</v>
       </c>
       <c r="E5">
-        <v>0.002603230681097077</v>
+        <v>2.603230681097077E-3</v>
       </c>
       <c r="F5">
         <v>0.121829166997362</v>
       </c>
       <c r="G5">
-        <v>6.776809979005151E-06</v>
+        <v>6.7768099790051508E-6</v>
       </c>
       <c r="H5">
-        <v>0.02344856141081798</v>
+        <v>2.344856141081798E-2</v>
       </c>
       <c r="I5">
-        <v>0.001155160245867459</v>
+        <v>1.1551602458674589E-3</v>
       </c>
       <c r="J5">
-        <v>0.02337576138552254</v>
+        <v>2.3375761385522539E-2</v>
       </c>
       <c r="K5">
-        <v>1.334395193632568E-06</v>
+        <v>1.3343951936325679E-6</v>
       </c>
       <c r="L5">
-        <v>0.4566944927894347</v>
+        <v>0.45669449278943469</v>
       </c>
       <c r="M5">
-        <v>0.0199001888648172</v>
+        <v>1.99001888648172E-2</v>
       </c>
       <c r="N5">
-        <v>0.4632501851996437</v>
+        <v>0.46325018519964373</v>
       </c>
       <c r="O5">
-        <v>0.0003960175168553943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>3.9601751685539429E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -689,43 +2001,43 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>0.124467879445734</v>
+        <v>0.12446787944573399</v>
       </c>
       <c r="E6">
-        <v>0.003953229549072693</v>
+        <v>3.9532295490726926E-3</v>
       </c>
       <c r="F6">
         <v>0.1244271141538576</v>
       </c>
       <c r="G6">
-        <v>1.562802386766149E-05</v>
+        <v>1.5628023867661489E-5</v>
       </c>
       <c r="H6">
-        <v>0.02452312249982026</v>
+        <v>2.4523122499820259E-2</v>
       </c>
       <c r="I6">
-        <v>0.001488400344900026</v>
+        <v>1.488400344900026E-3</v>
       </c>
       <c r="J6">
-        <v>0.02439971433931699</v>
+        <v>2.4399714339316991E-2</v>
       </c>
       <c r="K6">
-        <v>2.215335586698515E-06</v>
+        <v>2.2153355866985149E-6</v>
       </c>
       <c r="L6">
-        <v>0.4085211558402925</v>
+        <v>0.40852115584029253</v>
       </c>
       <c r="M6">
-        <v>0.02370652290553911</v>
+        <v>2.370652290553911E-2</v>
       </c>
       <c r="N6">
-        <v>0.4204451445055055</v>
+        <v>0.42044514450550552</v>
       </c>
       <c r="O6">
-        <v>0.0005619992282708503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>5.6199922827085034E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -736,43 +2048,43 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>0.1714235283549586</v>
+        <v>0.17142352835495861</v>
       </c>
       <c r="E7">
-        <v>0.004380236681629733</v>
+        <v>4.3802366816297327E-3</v>
       </c>
       <c r="F7">
-        <v>0.1735163615823835</v>
+        <v>0.17351636158238351</v>
       </c>
       <c r="G7">
-        <v>1.918647338709466E-05</v>
+        <v>1.9186473387094659E-5</v>
       </c>
       <c r="H7">
-        <v>0.04930949676078715</v>
+        <v>4.930949676078715E-2</v>
       </c>
       <c r="I7">
-        <v>0.00312536991357779</v>
+        <v>3.12536991357779E-3</v>
       </c>
       <c r="J7">
-        <v>0.05085510777730961</v>
+        <v>5.0855107777309609E-2</v>
       </c>
       <c r="K7">
-        <v>9.76793709669724E-06</v>
+        <v>9.7679370966972402E-6</v>
       </c>
       <c r="L7">
-        <v>0.2538976800980973</v>
+        <v>0.25389768009809732</v>
       </c>
       <c r="M7">
-        <v>0.02043710804846011</v>
+        <v>2.043710804846011E-2</v>
       </c>
       <c r="N7">
-        <v>0.2573469084537691</v>
+        <v>0.25734690845376912</v>
       </c>
       <c r="O7">
-        <v>0.0004176753853844329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>4.1767538538443292E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -786,40 +2098,40 @@
         <v>0.1241407382423098</v>
       </c>
       <c r="E8">
-        <v>0.003940743801209485</v>
+        <v>3.9407438012094851E-3</v>
       </c>
       <c r="F8">
         <v>0.1241375820650515</v>
       </c>
       <c r="G8">
-        <v>1.552946170677098E-05</v>
+        <v>1.552946170677098E-5</v>
       </c>
       <c r="H8">
-        <v>0.02432901460072041</v>
+        <v>2.432901460072041E-2</v>
       </c>
       <c r="I8">
-        <v>0.001556380815263849</v>
+        <v>1.5563808152638491E-3</v>
       </c>
       <c r="J8">
-        <v>0.02426974231478447</v>
+        <v>2.426974231478447E-2</v>
       </c>
       <c r="K8">
-        <v>2.422321242121365E-06</v>
+        <v>2.4223212421213648E-6</v>
       </c>
       <c r="L8">
-        <v>0.4160960859609119</v>
+        <v>0.41609608596091191</v>
       </c>
       <c r="M8">
-        <v>0.02699473160832887</v>
+        <v>2.6994731608328871E-2</v>
       </c>
       <c r="N8">
-        <v>0.4232788761285222</v>
+        <v>0.42327887612852222</v>
       </c>
       <c r="O8">
-        <v>0.0007287155346057096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7.2871553460570964E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -830,43 +2142,43 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>0.1234472145896073</v>
+        <v>0.12344721458960729</v>
       </c>
       <c r="E9">
-        <v>0.004005509949426044</v>
+        <v>4.0055099494260438E-3</v>
       </c>
       <c r="F9">
-        <v>0.1232654937851105</v>
+        <v>0.12326549378511049</v>
       </c>
       <c r="G9">
-        <v>1.604410995495103E-05</v>
+        <v>1.6044109954951029E-5</v>
       </c>
       <c r="H9">
-        <v>0.02429040327741588</v>
+        <v>2.4290403277415881E-2</v>
       </c>
       <c r="I9">
-        <v>0.001534128043522434</v>
+        <v>1.534128043522434E-3</v>
       </c>
       <c r="J9">
-        <v>0.02408114255426412</v>
+        <v>2.4081142554264121E-2</v>
       </c>
       <c r="K9">
-        <v>2.353548853921971E-06</v>
+        <v>2.3535488539219709E-6</v>
       </c>
       <c r="L9">
-        <v>0.4174911787061061</v>
+        <v>0.41749117870610608</v>
       </c>
       <c r="M9">
-        <v>0.02824285770783495</v>
+        <v>2.824285770783495E-2</v>
       </c>
       <c r="N9">
-        <v>0.4273891852966725</v>
+        <v>0.42738918529667252</v>
       </c>
       <c r="O9">
-        <v>0.0007976590115050118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>7.9765901150501183E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -880,40 +2192,40 @@
         <v>0.1211167847583049</v>
       </c>
       <c r="E10">
-        <v>0.00313344851594121</v>
+        <v>3.1334485159412099E-3</v>
       </c>
       <c r="F10">
-        <v>0.1203499063963566</v>
+        <v>0.12034990639635661</v>
       </c>
       <c r="G10">
-        <v>9.818499602054171E-06</v>
+        <v>9.8184996020541713E-6</v>
       </c>
       <c r="H10">
-        <v>0.02359908805767757</v>
+        <v>2.3599088057677568E-2</v>
       </c>
       <c r="I10">
-        <v>0.001290156776624458</v>
+        <v>1.2901567766244581E-3</v>
       </c>
       <c r="J10">
-        <v>0.02320996774893114</v>
+        <v>2.3209967748931141E-2</v>
       </c>
       <c r="K10">
-        <v>1.664504508270012E-06</v>
+        <v>1.664504508270012E-6</v>
       </c>
       <c r="L10">
-        <v>0.4491271872870221</v>
+        <v>0.44912718728702211</v>
       </c>
       <c r="M10">
-        <v>0.02481623615412404</v>
+        <v>2.4816236154124038E-2</v>
       </c>
       <c r="N10">
         <v>0.4616392805913852</v>
       </c>
       <c r="O10">
-        <v>0.0006158455768572532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.1584557685725322E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -924,43 +2236,43 @@
         <v>60</v>
       </c>
       <c r="D11">
-        <v>0.1224447047112242</v>
+        <v>0.12244470471122421</v>
       </c>
       <c r="E11">
-        <v>0.002542729315807903</v>
+        <v>2.5427293158079029E-3</v>
       </c>
       <c r="F11">
-        <v>0.1221280175258729</v>
+        <v>0.12212801752587291</v>
       </c>
       <c r="G11">
-        <v>6.465472373468927E-06</v>
+        <v>6.4654723734689274E-6</v>
       </c>
       <c r="H11">
-        <v>0.0237206890464266</v>
+        <v>2.3720689046426598E-2</v>
       </c>
       <c r="I11">
-        <v>0.0013171394329256</v>
+        <v>1.3171394329256E-3</v>
       </c>
       <c r="J11">
-        <v>0.02320752147896368</v>
+        <v>2.320752147896368E-2</v>
       </c>
       <c r="K11">
-        <v>1.734856285767572E-06</v>
+        <v>1.734856285767572E-6</v>
       </c>
       <c r="L11">
-        <v>0.4420608536106864</v>
+        <v>0.44206085361068642</v>
       </c>
       <c r="M11">
-        <v>0.02427406195349728</v>
+        <v>2.4274061953497281E-2</v>
       </c>
       <c r="N11">
-        <v>0.439777347596521</v>
+        <v>0.43977734759652098</v>
       </c>
       <c r="O11">
-        <v>0.000589230083722224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>5.8923008372222397E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -971,43 +2283,43 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <v>0.1237673621777858</v>
+        <v>0.12376736217778581</v>
       </c>
       <c r="E12">
-        <v>0.002534316300613724</v>
+        <v>2.534316300613724E-3</v>
       </c>
       <c r="F12">
-        <v>0.1228459290789553</v>
+        <v>0.12284592907895529</v>
       </c>
       <c r="G12">
-        <v>6.422759111556433E-06</v>
+        <v>6.422759111556433E-6</v>
       </c>
       <c r="H12">
-        <v>0.02425965784730182</v>
+        <v>2.4259657847301819E-2</v>
       </c>
       <c r="I12">
-        <v>0.001046324667692068</v>
+        <v>1.046324667692068E-3</v>
       </c>
       <c r="J12">
-        <v>0.02388068618422721</v>
+        <v>2.3880686184227212E-2</v>
       </c>
       <c r="K12">
-        <v>1.094795310220916E-06</v>
+        <v>1.094795310220916E-6</v>
       </c>
       <c r="L12">
-        <v>0.4252049298518615</v>
+        <v>0.42520492985186148</v>
       </c>
       <c r="M12">
-        <v>0.02265943908974069</v>
+        <v>2.2659439089740691E-2</v>
       </c>
       <c r="N12">
-        <v>0.4364227913315971</v>
+        <v>0.43642279133159712</v>
       </c>
       <c r="O12">
-        <v>0.0005134501798616682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.1345017986166824E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1018,40 +2330,40 @@
         <v>60</v>
       </c>
       <c r="D13">
-        <v>0.1241698654179993</v>
+        <v>0.12416986541799931</v>
       </c>
       <c r="E13">
-        <v>0.002303790774213353</v>
+        <v>2.3037907742133532E-3</v>
       </c>
       <c r="F13">
-        <v>0.1231197428232459</v>
+        <v>0.12311974282324591</v>
       </c>
       <c r="G13">
-        <v>5.30745193135056E-06</v>
+        <v>5.3074519313505596E-6</v>
       </c>
       <c r="H13">
-        <v>0.024513781224351</v>
+        <v>2.4513781224351001E-2</v>
       </c>
       <c r="I13">
-        <v>0.000988369583300076</v>
+        <v>9.88369583300076E-4</v>
       </c>
       <c r="J13">
-        <v>0.02414733343013373</v>
+        <v>2.4147333430133731E-2</v>
       </c>
       <c r="K13">
-        <v>9.768744331927659E-07</v>
+        <v>9.7687443319276588E-7</v>
       </c>
       <c r="L13">
-        <v>0.4240746110710371</v>
+        <v>0.42407461107103711</v>
       </c>
       <c r="M13">
-        <v>0.02160543840325091</v>
+        <v>2.1605438403250909E-2</v>
       </c>
       <c r="N13">
-        <v>0.4133959500340278</v>
+        <v>0.41339595003402779</v>
       </c>
       <c r="O13">
-        <v>0.0004667949685966693</v>
+        <v>4.6679496859666932E-4</v>
       </c>
     </row>
   </sheetData>

--- a/report/ml_perform_crossval_agg_2022-11-23.xlsx
+++ b/report/ml_perform_crossval_agg_2022-11-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCB690-26AA-49FA-9BE4-2626F8ECE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D7CB7-B79E-4C85-9DE4-000312DFD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="1776" windowWidth="13824" windowHeight="7176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -549,7 +549,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -557,7 +557,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -589,7 +589,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -597,7 +597,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -623,7 +623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -698,7 +698,7 @@
     <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -706,7 +706,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -738,7 +738,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -746,7 +746,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -847,7 +847,7 @@
     <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -855,7 +855,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -887,7 +887,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -895,7 +895,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A5" sqref="A5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/report/ml_perform_crossval_agg_2022-11-23.xlsx
+++ b/report/ml_perform_crossval_agg_2022-11-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D7CB7-B79E-4C85-9DE4-000312DFD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF063D7-B81C-4AC2-A26D-8F541F78F10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="41" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -549,7 +549,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -557,7 +557,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -589,7 +589,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -597,7 +597,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -623,7 +623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -698,7 +698,7 @@
     <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -706,7 +706,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -738,7 +738,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -746,7 +746,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -847,7 +847,7 @@
     <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -855,7 +855,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -887,7 +887,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -895,7 +895,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/report/ml_perform_crossval_agg_2022-11-23.xlsx
+++ b/report/ml_perform_crossval_agg_2022-11-23.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF063D7-B81C-4AC2-A26D-8F541F78F10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03905B45-1E5C-4113-AAC9-7D82D906379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="3" r:id="rId1"/>
-    <sheet name="MSE" sheetId="4" r:id="rId2"/>
-    <sheet name="Pearson" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="MAE_STD" sheetId="6" r:id="rId2"/>
+    <sheet name="MSE" sheetId="4" r:id="rId3"/>
+    <sheet name="MSE_STD" sheetId="7" r:id="rId4"/>
+    <sheet name="Pearson" sheetId="5" r:id="rId5"/>
+    <sheet name="Pearson_STD" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId5"/>
+    <pivotCache cacheId="47" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -111,12 +127,21 @@
   <si>
     <t>Average of avg_pearson</t>
   </si>
+  <si>
+    <t>Average of std_mae</t>
+  </si>
+  <si>
+    <t>Average of std_mse</t>
+  </si>
+  <si>
+    <t>Sum of std_pearson</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +157,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E081"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE483"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FCA7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93CB7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCA978"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +244,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -178,6 +273,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -549,7 +668,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -557,7 +676,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -589,7 +708,479 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4E7BBFC-7CC1-45D7-8E03-78E0B5163E99}" name="PivotTable16" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of std_mae" fld="4" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
     <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A532DE2-5E13-444D-A690-02F45F44A3B0}" name="PivotTable17" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of std_mse" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -622,8 +1213,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{981DD6A9-7C0F-4B3C-B53E-DFCDAFE7F335}" name="PivotTable18" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -648,12 +1239,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -695,10 +1286,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Sum of std_pearson" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="9">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -718,7 +1309,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -738,156 +1329,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -1244,7 +1686,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,11 +1848,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0288A44C-85CE-4C31-A524-B05E4CF4E662}">
+  <dimension ref="A3:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.8855985630282582E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.9532295490726926E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.1334485159412099E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.3240922093473869E-3</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>2.8855985630282582E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.9532295490726926E-3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3.1334485159412099E-3</v>
+      </c>
+      <c r="L5">
+        <f>ROUND(H5,5)</f>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N5" si="0">ROUND(I5,5)</f>
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.6283318944860588E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.3802366816297327E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.5427293158079029E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.183765963974565E-3</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>2.6283318944860588E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.3802366816297327E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.5427293158079029E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L8" si="1">ROUND(H6,5)</f>
+        <v>2.63E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="2">ROUND(I6,5)</f>
+        <v>4.3800000000000002E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N8" si="3">ROUND(J6,5)</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.8881751235777169E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.9407438012094851E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.534316300613724E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.4544117418003084E-3</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>3.8881751235777169E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3.9407438012094851E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.534316300613724E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>3.8899999999999998E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>2.5300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.603230681097077E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.0055099494260438E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.3037907742133532E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.9708438015788249E-3</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>2.603230681097077E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.0055099494260438E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.3037907742133532E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.0013340655472773E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.0699299953344883E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.6285712266440478E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.2332784291752713E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1F3551-53E8-4270-904A-4A6BABFF3919}">
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D8"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,12 +2269,392 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBB4E8-7427-480C-AC2B-5FBB56A19AC6}">
+  <dimension ref="A3:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0127935170775211E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.488400344900026E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.2901567766244581E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.2637835462006683E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.0127935170775211E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.488400344900026E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2901567766244581E-3</v>
+      </c>
+      <c r="K5">
+        <f>ROUND(G5,5)</f>
+        <v>1.01E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:M5" si="0">ROUND(H5,5)</f>
+        <v>1.49E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.2899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.082618427481236E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.12536991357779E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.3171394329256E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.8417092579948752E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.082618427481236E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.12536991357779E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.3171394329256E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K8" si="1">ROUND(G6,5)</f>
+        <v>1.08E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L8" si="2">ROUND(H6,5)</f>
+        <v>3.13E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="3">ROUND(I6,5)</f>
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.3300930667359389E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5563808152638491E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.046324667692068E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.3109328498972853E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.3300930667359389E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.5563808152638491E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.046324667692068E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.33E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.56E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.1551602458674589E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.534128043522434E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.88369583300076E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.225885957563323E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.1551602458674589E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.534128043522434E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9.88369583300076E-4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.16E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>9.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.1451663142905387E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.9260697793160248E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1604976151355505E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4105779029140381E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="5">
+        <v>2.4723189E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.4523122000000001E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2.3599088000000001E-2</v>
+      </c>
+      <c r="K11">
+        <f>ROUND(G11,5)</f>
+        <v>2.4719999999999999E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:M11" si="4">ROUND(H11,5)</f>
+        <v>2.452E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="7">
+        <v>2.3634433E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.9309497000000001E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2.3720689E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K14" si="5">ROUND(G12,5)</f>
+        <v>2.3630000000000002E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L14" si="6">ROUND(H12,5)</f>
+        <v>4.931E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M14" si="7">ROUND(I12,5)</f>
+        <v>2.3720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="8">
+        <v>2.3749009000000001E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2.4329014999999999E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2.4259658E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>2.375E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>2.4330000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>2.426E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="10">
+        <v>2.3456747999999999E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.4290402999999999E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2.4513780999999998E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>2.4289999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>2.4510000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD986D0-B3E7-49B9-B5F4-2C714C49CCCF}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,9 +2662,10 @@
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +2673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1627,8 +2706,17 @@
       <c r="E5" s="4">
         <v>0.42574096172941917</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="4">
+        <v>0.41957454206094269</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.40852115584029253</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.44912718728702211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1644,8 +2732,17 @@
       <c r="E6" s="4">
         <v>0.37881895285316958</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>0.44049832485072488</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.25389768009809732</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.44206085361068642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1661,8 +2758,17 @@
       <c r="E7" s="4">
         <v>0.42578256540732878</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>0.43604668040921291</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.41609608596091191</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.42520492985186148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1678,8 +2784,17 @@
       <c r="E8" s="4">
         <v>0.43275342752219265</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>0.45669449278943469</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.41749117870610608</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.42407461107103711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +2811,136 @@
         <v>0.41577397687802753</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>ROUND(H5,5)</f>
+        <v>0.41957</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="0">ROUND(I5,5)</f>
+        <v>0.40851999999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.44912999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" ref="H13:J15" si="1">ROUND(H6,5)</f>
+        <v>0.4405</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.44206000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.43604999999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.42520000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.45668999999999998</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.41749000000000003</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.42407</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1709,7 +2952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:C8">
+  <conditionalFormatting sqref="I12:I15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1721,7 +2964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D8">
+  <conditionalFormatting sqref="J12:J15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1734,15 +2977,347 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB904A6-7824-4CF6-90A4-0686D0CE9D21}">
+  <dimension ref="A3:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.0484454471559568E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.370652290553911E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.4816236154124038E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.9007213531222716E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.0484454471559568E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.370652290553911E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.4816236154124038E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.8525348631017641E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.043710804846011E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.4274061953497281E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.3236518632975025E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.8525348631017641E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.043710804846011E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.4274061953497281E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.8356355123786359E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.6994731608328871E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.2659439089740691E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.8010525821855914E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.8356355123786359E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.6994731608328871E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.2659439089740691E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.99001888648172E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.824285770783495E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.1605438403250909E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.9748484975903052E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.99001888648172E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.824285770783495E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.1605438403250909E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.7266347091180765E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.9381220270163037E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.3355175600612919E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28000274296195671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>ROUND(H5,5)</f>
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="0">ROUND(I5,5)</f>
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.4819999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" ref="H13:J15" si="1">ROUND(H6,5)</f>
+        <v>1.8530000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.044E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2.427E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.836E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.699E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2.266E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2.8240000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2.1610000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/report/ml_perform_crossval_agg_2022-11-23.xlsx
+++ b/report/ml_perform_crossval_agg_2022-11-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03905B45-1E5C-4113-AAC9-7D82D906379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205647B-A392-4D9A-AB51-EEDEAC920C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId8"/>
+    <pivotCache cacheId="54" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -296,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +596,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45CA24C3-FA40-4E02-9065-76E1BB7A77C4}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -666,478 +669,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4E7BBFC-7CC1-45D7-8E03-78E0B5163E99}" name="PivotTable16" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of std_mae" fld="4" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A532DE2-5E13-444D-A690-02F45F44A3B0}" name="PivotTable17" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of std_mse" fld="8" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
     <conditionalFormat priority="9">
@@ -1213,8 +744,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{981DD6A9-7C0F-4B3C-B53E-DFCDAFE7F335}" name="PivotTable18" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4E7BBFC-7CC1-45D7-8E03-78E0B5163E99}" name="PivotTable16" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -1236,15 +767,15 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -1286,7 +817,94 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of std_pearson" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Average of std_mae" fld="4" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C471535D-9DE9-4EB3-AB11-805DE0DB371F}" name="PivotTable2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_mse" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
     <conditionalFormat priority="9">
@@ -1338,6 +956,391 @@
             </reference>
             <reference field="0" count="1" selected="0">
               <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A532DE2-5E13-444D-A690-02F45F44A3B0}" name="PivotTable17" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of std_mse" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A81914BC-0C01-44CB-88B1-90F352488E72}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of avg_pearson" fld="11" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{981DD6A9-7C0F-4B3C-B53E-DFCDAFE7F335}" name="PivotTable18" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of std_pearson" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -1683,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F55B21A-F7A6-41CD-9CD2-305714BEF335}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1699,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1737,8 +1740,17 @@
       <c r="E5" s="4">
         <v>0.12302060382066766</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <v>0.1234771472579641</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12446787944573399</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.1211167847583049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1754,8 +1766,17 @@
       <c r="E6" s="4">
         <v>0.13896209055806633</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>0.12301803860801611</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.17142352835495861</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.12244470471122421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1771,8 +1792,17 @@
       <c r="E7" s="4">
         <v>0.12364025139041772</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="4">
+        <v>0.1230126537511575</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.1241407382423098</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.12376736217778581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1788,8 +1818,17 @@
       <c r="E8" s="4">
         <v>0.12322979130848749</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>0.1220722939178559</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.12344721458960729</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.12416986541799931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1845,136 @@
         <v>0.12721318426940981</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="13">
+        <f>ROUND(I5,5)</f>
+        <v>0.12348000000000001</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:K11" si="0">ROUND(J5,5)</f>
+        <v>0.12447</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12112000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="13">
+        <f t="shared" ref="I12:K14" si="1">ROUND(I6,5)</f>
+        <v>0.12302</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17141999999999999</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12243999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12300999999999999</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12414</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12377000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12207</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12345</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12417</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1819,7 +1986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:C8">
+  <conditionalFormatting sqref="J11:J14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1831,7 +1998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D8">
+  <conditionalFormatting sqref="K11:K14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1844,6 +2011,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1852,7 +2020,7 @@
   <dimension ref="A3:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L5" sqref="L5:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1F3551-53E8-4270-904A-4A6BABFF3919}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2286,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2159,8 +2327,17 @@
       <c r="E5" s="4">
         <v>2.4281647132132728E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="4">
+        <v>2.4722730838900371E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.4523122499820259E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.3599088057677568E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2176,8 +2353,17 @@
       <c r="E6" s="4">
         <v>3.2262893741807096E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>2.3758495418207522E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.930949676078715E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.3720689046426598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2379,17 @@
       <c r="E7" s="4">
         <v>2.4141770193446696E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>2.3836638132317858E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.432901460072041E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.4259657847301819E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -2210,8 +2405,17 @@
       <c r="E8" s="4">
         <v>2.4084248637528286E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>2.344856141081798E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.4290403277415881E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.4513781224351001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2228,8 +2432,136 @@
         <v>2.6192639926228698E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>ROUND(H5,5)</f>
+        <v>2.4719999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="0">ROUND(I5,5)</f>
+        <v>2.452E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" ref="H13:J15" si="1">ROUND(H6,5)</f>
+        <v>2.376E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4.931E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2.3720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.384E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.4330000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2.426E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.3449999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2.4289999999999999E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2.4510000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2241,7 +2573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:C8">
+  <conditionalFormatting sqref="I12:I15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2253,7 +2585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D8">
+  <conditionalFormatting sqref="J12:J15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2266,6 +2598,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2985,7 +3318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB904A6-7824-4CF6-90A4-0686D0CE9D21}">
   <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
